--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_28_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117242.8569582785</v>
+        <v>20831109.60381365</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117242.8569582785</v>
+        <v>20831109.60381365</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7240.952595368034</v>
+        <v>801966.921051844</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7240.952595368034</v>
+        <v>801966.921051844</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188728600.799238</v>
+        <v>48142686.31732285</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9208.065692575663</v>
+        <v>1060271.255722409</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17672.7333200124</v>
+        <v>2032569.344066697</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26249.96162391317</v>
+        <v>3004867.432410994</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34971.14298368085</v>
+        <v>3978673.390664431</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43845.41207289547</v>
+        <v>4952319.599044986</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52398.45433484431</v>
+        <v>5925965.807425538</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61146.23724698266</v>
+        <v>6899612.015806089</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69995.75384961281</v>
+        <v>7873258.224186638</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78639.9606947393</v>
+        <v>8806542.304713683</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87208.50700106863</v>
+        <v>9781744.865054918</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95715.29474180761</v>
+        <v>10753763.6006224</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104098.2905020785</v>
+        <v>11724795.72419441</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112418.105790663</v>
+        <v>12695943.0869619</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121191.024337068</v>
+        <v>13609128.14305266</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130427.1165156724</v>
+        <v>14469958.97940984</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27049,16 +27049,16 @@
         <v>374</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>361</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
